--- a/static/schedule-courses/Horario 1-2024 - 2559176.xlsx
+++ b/static/schedule-courses/Horario 1-2024 - 2559176.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -172,13 +172,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -520,6 +520,16 @@
           <t>2559176</t>
         </is>
       </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Instructor titular:</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MALCON PAUL ARGUMERO CORTÉS</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -610,7 +620,13 @@
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>EMPAQUES 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -623,7 +639,13 @@
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>EMPAQUES 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -636,7 +658,13 @@
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>PREPRENSA 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -649,7 +677,13 @@
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>PREPRENSA 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -662,7 +696,13 @@
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>REVISIÓN DE ARCHIVOS 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -675,7 +715,13 @@
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>REVISIÓN DE ARCHIVOS 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -737,36 +783,36 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
- 203</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
           <t>MEDIO AMBIENTE 
  YURANI GALLEGO CARDONA 
  203</t>
         </is>
       </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>EMPAQUES 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
           <t>PREPRENSA 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
           <t>EMPAQUES 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
           <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
@@ -780,36 +826,36 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
- 203</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
           <t>MEDIO AMBIENTE 
  YURANI GALLEGO CARDONA 
  203</t>
         </is>
       </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>EMPAQUES 
+ WHITNEY LÓPEZ RAMÍREZ 
+ 203</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
           <t>PREPRENSA 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
           <t>EMPAQUES 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
           <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
@@ -824,7 +870,7 @@
       <c r="B23" s="3" t="inlineStr">
         <is>
           <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
@@ -838,21 +884,21 @@
       <c r="D23" s="3" t="inlineStr">
         <is>
           <t>PREPRENSA 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
           <t>EMPAQUES 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
           <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
@@ -867,7 +913,7 @@
       <c r="B24" s="3" t="inlineStr">
         <is>
           <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
@@ -881,21 +927,21 @@
       <c r="D24" s="3" t="inlineStr">
         <is>
           <t>PREPRENSA 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
           <t>EMPAQUES 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
           <t>REVISIÓN DE ARCHIVOS 
- ALVARO ENRIQUE SANCHEZ PULIDO 
+ WHITNEY LÓPEZ RAMÍREZ 
  203</t>
         </is>
       </c>
@@ -935,22 +981,22 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>REVISIÓN DE ARCHIVOS</t>
+          <t>MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>291301078 DIAGRAMAR PIEZAS GRÁFICAS DE ACUERDO CON EL MEDIO DE SALIDA Y PARÁMETROS DE MAQUETACIÓN</t>
+          <t>220601501 APLICAR PRÁCTICAS DE PROTECCIÓN AMBIENTAL, SEGURIDAD Y SALUD EN EL TRABAJO DE ACUERDO CON LAS POLÍTICAS ORGANIZACIONALES Y LA NORMATIVIDAD VIGENTE.</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>DIAGRAMACIÓN DE PRODUCTOS GRÁFICOS EDITORIALES.</t>
+          <t>APLICACIÓN DE PRÁCTICAS DE PROTECCIÓN AMBIENTAL, SEGURIDAD Y SALUD EN EL TRABAJO</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>29130107803 Generar archivos de acuerdo con el dispositivo de salida</t>
+          <t>22060150101 Analizar las estrategias para la prevención y control de los impactos ambientales y de los accidentes y enfermedades laborales (atel) de acuerdo con las políticas organizacionales y el entorno social.</t>
         </is>
       </c>
     </row>
@@ -972,7 +1018,7 @@
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>22060150101 Analizar las estrategias para la prevención y control de los impactos ambientales y de los accidentes y enfermedades laborales (atel) de acuerdo con las políticas organizacionales y el entorno social.</t>
+          <t>22060150102 Implementar estrategias para el control de los impactos ambientales y de los accidentes y enfermedades de acuerdo con los planes y programas establecidos por la organización.</t>
         </is>
       </c>
     </row>
@@ -994,7 +1040,7 @@
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>22060150102 Implementar estrategias para el control de los impactos ambientales y de los accidentes y enfermedades de acuerdo con los planes y programas establecidos por la organización.</t>
+          <t>22060150103 Realizar seguimiento y acompañamiento al desarrollo de los planes y programas ambientales y sst, según el área de desempeño.</t>
         </is>
       </c>
     </row>
@@ -1016,51 +1062,51 @@
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>22060150103 Realizar seguimiento y acompañamiento al desarrollo de los planes y programas ambientales y sst, según el área de desempeño.</t>
+          <t>22060150104 Proponer acciones de mejora para el manejo ambiental y el control de la sst, de acuerdo con estrategias de trabajo, colaborativo, cooperativo y coordinado en el contexto productivo y social.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>MEDIO AMBIENTE</t>
+          <t>REVISIÓN DE ARCHIVOS</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>220601501 APLICAR PRÁCTICAS DE PROTECCIÓN AMBIENTAL, SEGURIDAD Y SALUD EN EL TRABAJO DE ACUERDO CON LAS POLÍTICAS ORGANIZACIONALES Y LA NORMATIVIDAD VIGENTE.</t>
+          <t>291301078 DIAGRAMAR PIEZAS GRÁFICAS DE ACUERDO CON EL MEDIO DE SALIDA Y PARÁMETROS DE MAQUETACIÓN</t>
         </is>
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>APLICACIÓN DE PRÁCTICAS DE PROTECCIÓN AMBIENTAL, SEGURIDAD Y SALUD EN EL TRABAJO</t>
+          <t>DIAGRAMACIÓN DE PRODUCTOS GRÁFICOS EDITORIALES.</t>
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>22060150104 Proponer acciones de mejora para el manejo ambiental y el control de la sst, de acuerdo con estrategias de trabajo, colaborativo, cooperativo y coordinado en el contexto productivo y social.</t>
+          <t>29130107803 Generar archivos de acuerdo con el dispositivo de salida</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>INGLÉS</t>
+          <t>EMPAQUES</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>240202501 INTERACTUAR EN LENGUA INGLESA DE FORMA ORAL Y ESCRITA DENTRO DE CONTEXTOS SOCIALES Y LABORALES SEGÚN LOS CRITERIOS ESTABLECIDOS POR EL MARCO COMÚN EUROPEO DE REFERENCIA PARA LAS LENGUAS.</t>
+          <t>291301077 ELABORAR PIEZAS GRAFICAS DE ACUERDO CON LOS REQUERIMIENTOS DEL CLIENTE Y PRINCIPIOS DEL DISEÑO GRÁFICO.</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>INTERACCIÓN EN LENGUA INGLESA DE FORMA ORAL Y ESCRITA DENTRO DE CONTEXTOS SOCIALES Y LABORALES</t>
+          <t>ELABORACIÓN DE PIEZAS GRÁFICAS.</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>24020250101 Comprender información sobre situaciones cotidianas y laborales actuales y futuras a través de interacciones sociales de forma oral y escrita.</t>
+          <t xml:space="preserve">291301077 05 Entregar producto aprobado por el cliente de acuerdo con las características del medio de salida. </t>
         </is>
       </c>
     </row>
@@ -1082,7 +1128,7 @@
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>24020250102 Intercambiar opiniones sobre situaciones cotidianas y laborales actuales, pasadas y futuras en contextos sociales orales y escritos.</t>
+          <t>24020250101 Comprender información sobre situaciones cotidianas y laborales actuales y futuras a través de interacciones sociales de forma oral y escrita.</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1150,7 @@
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>24020250103 Discutir sobre posibles soluciones a problemas dentro de un rango variado de contextos sociales y laborales.</t>
+          <t>24020250102 Intercambiar opiniones sobre situaciones cotidianas y laborales actuales, pasadas y futuras en contextos sociales orales y escritos.</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1172,7 @@
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>24020250104 Implementar acciones de mejora relacionadas con el uso de expresiones, estructuras y desempeño según los resultados de aprendizaje formulados para el</t>
+          <t>24020250103 Discutir sobre posibles soluciones a problemas dentro de un rango variado de contextos sociales y laborales.</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1194,7 @@
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>24020250105 Presentar un proceso para la realización de una actividad en su quehacer laboral de acuerdo con los procedimientos establecidos desde su programa de formación.</t>
+          <t>24020250104 Implementar acciones de mejora relacionadas con el uso de expresiones, estructuras y desempeño según los resultados de aprendizaje formulados para el</t>
         </is>
       </c>
     </row>
@@ -1170,56 +1216,56 @@
       </c>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t>24020250106 Explicar las funciones de su ocupación laboral usando expresiones de acuerdo al nivel requerido por el programa de formación.</t>
+          <t>24020250105 Presentar un proceso para la realización de una actividad en su quehacer laboral de acuerdo con los procedimientos establecidos desde su programa de formación.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>PREPRENSA</t>
+          <t>INGLÉS</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>291301083 EDITAR IMÁGENES DE ACUERDO CON CRITERIOS DE COMUNICACIÓN Y TÉCNICAS DE EDICIÓN</t>
+          <t>240202501 INTERACTUAR EN LENGUA INGLESA DE FORMA ORAL Y ESCRITA DENTRO DE CONTEXTOS SOCIALES Y LABORALES SEGÚN LOS CRITERIOS ESTABLECIDOS POR EL MARCO COMÚN EUROPEO DE REFERENCIA PARA LAS LENGUAS.</t>
         </is>
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>EDICIÓN DE IMÁGENES VECTORIALES Y MAPA DE BITS.</t>
+          <t>INTERACCIÓN EN LENGUA INGLESA DE FORMA ORAL Y ESCRITA DENTRO DE CONTEXTOS SOCIALES Y LABORALES</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t>291301083 06 Verificar archivos digitales según medio de salida.</t>
+          <t>24020250106 Explicar las funciones de su ocupación laboral usando expresiones de acuerdo al nivel requerido por el programa de formación.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>EMPAQUES</t>
+          <t>PREPRENSA</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>291301077 ELABORAR PIEZAS GRAFICAS DE ACUERDO CON LOS REQUERIMIENTOS DEL CLIENTE Y PRINCIPIOS DEL DISEÑO GRÁFICO.</t>
+          <t>291301083 EDITAR IMÁGENES DE ACUERDO CON CRITERIOS DE COMUNICACIÓN Y TÉCNICAS DE EDICIÓN</t>
         </is>
       </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>ELABORACIÓN DE PIEZAS GRÁFICAS.</t>
+          <t>EDICIÓN DE IMÁGENES VECTORIALES Y MAPA DE BITS.</t>
         </is>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">291301077 05 Entregar producto aprobado por el cliente de acuerdo con las características del medio de salida. </t>
+          <t>291301083 06 Verificar archivos digitales según medio de salida.</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>